--- a/777/11. 4조 테이블정의서.xlsx
+++ b/777/11. 4조 테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-16\Documents\H.W\777\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922541B9-F3AE-43E0-BA54-39C34092B0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC0558-3D54-49F4-8EC2-9AF0C4E1F680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17610" yWindow="690" windowWidth="13965" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="328">
   <si>
     <t>SUBQNA_DATE</t>
   </si>
@@ -931,9 +931,6 @@
   </si>
   <si>
     <t>장바구니테이블</t>
-  </si>
-  <si>
-    <t>아직</t>
   </si>
   <si>
     <t>varchar2(n)</t>
@@ -1020,6 +1017,61 @@
     <t>varchar2(30)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>BOARD_PATH</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사진 경로</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNA_PATH</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사진 경로</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1028,7 +1080,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1182,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1151,7 +1223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1273,11 +1345,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1332,6 +1432,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,25 +1471,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2039,7 +2172,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2092,7 +2225,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2145,7 +2278,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2198,7 +2331,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2251,7 +2384,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2304,7 +2437,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2357,7 +2490,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2410,7 +2543,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2463,7 +2596,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2516,7 +2649,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2569,7 +2702,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2622,7 +2755,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2675,7 +2808,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2728,7 +2861,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2781,7 +2914,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2834,7 +2967,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2887,7 +3020,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2940,7 +3073,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -2993,7 +3126,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3046,7 +3179,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3099,7 +3232,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3152,7 +3285,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3205,7 +3338,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3258,7 +3391,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3311,7 +3444,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3364,7 +3497,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3417,7 +3550,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3470,7 +3603,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3523,7 +3656,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3576,7 +3709,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3629,7 +3762,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3682,7 +3815,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3735,7 +3868,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3788,7 +3921,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3841,7 +3974,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3894,7 +4027,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -3947,7 +4080,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4000,7 +4133,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4053,7 +4186,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4106,7 +4239,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4159,7 +4292,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4212,7 +4345,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4265,7 +4398,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4318,7 +4451,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4371,7 +4504,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4424,7 +4557,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4477,7 +4610,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4530,7 +4663,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4583,7 +4716,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4636,7 +4769,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4689,7 +4822,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4742,7 +4875,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4795,7 +4928,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4848,7 +4981,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4901,7 +5034,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -4954,7 +5087,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5007,7 +5140,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5060,7 +5193,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5113,7 +5246,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5166,7 +5299,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5219,7 +5352,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5272,7 +5405,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5325,7 +5458,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="76200" cy="228600"/>
@@ -5575,10 +5708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K244"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E242" sqref="E242"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5597,16 +5730,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5621,10 +5754,10 @@
       <c r="D2" s="3">
         <v>44302</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -5639,24 +5772,24 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -5753,16 +5886,16 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -5777,10 +5910,10 @@
       <c r="D10" s="3">
         <v>44302</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5795,24 +5928,24 @@
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5953,16 +6086,16 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -5977,10 +6110,10 @@
       <c r="D20" s="3">
         <v>44302</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -5995,24 +6128,24 @@
       <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -6221,16 +6354,16 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -6245,10 +6378,10 @@
       <c r="D33" s="3">
         <v>44302</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -6263,24 +6396,24 @@
       <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -6467,200 +6600,198 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="34">
         <v>8</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="38">
+        <v>9</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>1</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>3</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>98</v>
+      <c r="E53" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>22</v>
@@ -6672,41 +6803,43 @@
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>46</v>
+      <c r="E55" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>22</v>
@@ -6716,19 +6849,19 @@
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>49</v>
+      <c r="E56" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>22</v>
@@ -6737,154 +6870,154 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="6">
+        <v>7</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>1</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>49</v>
+      <c r="E63" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>42</v>
+      <c r="E64" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>22</v>
@@ -6892,21 +7025,21 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>22</v>
@@ -6914,173 +7047,173 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="3">
         <v>44302</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="23"/>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B70" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+    <row r="72" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
         <v>1</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
-        <v>2</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="8"/>
-      <c r="H72" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>55</v>
+      <c r="E73" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>20</v>
@@ -7094,128 +7227,125 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>4</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>44302</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="23"/>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B79" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="20"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <v>1</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>2</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>20</v>
@@ -7228,16 +7358,19 @@
       <c r="H81" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J81" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>20</v>
@@ -7247,17 +7380,19 @@
         <v>22</v>
       </c>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>20</v>
@@ -7269,15 +7404,15 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>20</v>
@@ -7289,262 +7424,257 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>5</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>44302</v>
       </c>
-      <c r="E86" s="21"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="23"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="E88" s="28"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B89" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="20"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <v>1</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="D91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
-        <v>2</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="H91" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>2</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="24"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D94" s="3">
         <v>44302</v>
       </c>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="E94" s="25"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="26"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="E95" s="28"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="30"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B96" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="20"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
-        <v>1</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>20</v>
@@ -7554,161 +7684,162 @@
         <v>22</v>
       </c>
       <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="6">
+        <v>2</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E100" s="21"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D101" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E101" s="25"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="28"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="24"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
-        <v>1</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J104" s="12"/>
-      <c r="K104" s="14"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="J105" s="14"/>
+      <c r="H105" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="12"/>
       <c r="K105" s="14"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>22</v>
@@ -7720,19 +7851,19 @@
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>55</v>
+      <c r="E107" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>22</v>
@@ -7744,19 +7875,19 @@
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>42</v>
+      <c r="E108" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>22</v>
@@ -7768,19 +7899,19 @@
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>22</v>
@@ -7792,19 +7923,19 @@
     </row>
     <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>55</v>
+      <c r="E110" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>22</v>
@@ -7816,19 +7947,19 @@
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>59</v>
+      <c r="E111" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>22</v>
@@ -7840,19 +7971,19 @@
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>22</v>
@@ -7863,129 +7994,131 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="20"/>
+      <c r="A113" s="6">
+        <v>9</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="23"/>
+      <c r="A114" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="24"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="28"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="24"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="13" t="s">
+      <c r="J118" s="13" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>1</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>20</v>
@@ -7995,17 +8128,19 @@
         <v>22</v>
       </c>
       <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
+      <c r="H119" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="15">
-        <v>3</v>
+      <c r="A120" s="6">
+        <v>2</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>20</v>
@@ -8018,178 +8153,176 @@
       <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="15">
+        <v>3</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="24"/>
     </row>
     <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
     </row>
     <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="28"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="30"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="24"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
-        <v>1</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G127" s="8"/>
-      <c r="H127" s="9" t="s">
-        <v>182</v>
+      <c r="H127" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="9" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>22</v>
@@ -8199,19 +8332,19 @@
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>22</v>
@@ -8221,19 +8354,19 @@
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>22</v>
@@ -8243,19 +8376,19 @@
     </row>
     <row r="132" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>22</v>
@@ -8265,19 +8398,19 @@
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>22</v>
@@ -8287,19 +8420,19 @@
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>22</v>
@@ -8309,19 +8442,19 @@
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>22</v>
@@ -8331,19 +8464,19 @@
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E136" s="7" t="s">
-        <v>55</v>
+      <c r="E136" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>22</v>
@@ -8353,13 +8486,13 @@
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>20</v>
@@ -8375,13 +8508,13 @@
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>20</v>
@@ -8397,19 +8530,19 @@
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>59</v>
+      <c r="E139" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>22</v>
@@ -8419,13 +8552,13 @@
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>20</v>
@@ -8441,19 +8574,19 @@
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>22</v>
@@ -8463,19 +8596,19 @@
     </row>
     <row r="142" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>22</v>
@@ -8484,154 +8617,154 @@
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="6">
+        <v>17</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="20"/>
-    </row>
-    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E144" s="21"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="24"/>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D145" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E145" s="25"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="27"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="28"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="30"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="24"/>
+    </row>
+    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
-        <v>1</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="10" t="s">
-        <v>156</v>
+      <c r="E149" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
+      <c r="H149" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>22</v>
@@ -8641,19 +8774,19 @@
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="7" t="s">
-        <v>49</v>
+      <c r="E151" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>22</v>
@@ -8663,19 +8796,19 @@
     </row>
     <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E152" s="10" t="s">
-        <v>42</v>
+      <c r="E152" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>22</v>
@@ -8685,19 +8818,19 @@
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
+        <v>5</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C153" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="D153" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>22</v>
@@ -8707,19 +8840,19 @@
     </row>
     <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>22</v>
@@ -8729,180 +8862,180 @@
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G155" s="8"/>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>8</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="8"/>
+      <c r="H156" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="18" t="s">
+    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="20"/>
-    </row>
-    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E157" s="21"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="23"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="24"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D158" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="27"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="28"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="30"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="24"/>
+    </row>
+    <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
-        <v>1</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J161" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="10" t="s">
-        <v>153</v>
+      <c r="E162" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>49</v>
+      <c r="E163" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>22</v>
@@ -8912,19 +9045,19 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="10" t="s">
-        <v>156</v>
+      <c r="E164" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F164" s="8" t="s">
         <v>22</v>
@@ -8933,127 +9066,124 @@
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="6">
+        <v>4</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="20"/>
-    </row>
-    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E166" s="21"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="24"/>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D167" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E167" s="25"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="27"/>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="28"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="30"/>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="24"/>
+    </row>
+    <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
-        <v>1</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="J170" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>20</v>
@@ -9066,16 +9196,19 @@
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
+      <c r="J171" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>20</v>
@@ -9090,127 +9223,124 @@
       <c r="H172" s="8"/>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="6">
+        <v>3</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-    </row>
-    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E174" s="21"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="22"/>
-      <c r="H174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="24"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="24"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="D175" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E175" s="25"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="27"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="28"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="30"/>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="24"/>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
-        <v>1</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="J178" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>20</v>
@@ -9223,16 +9353,19 @@
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
+      <c r="J179" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>20</v>
@@ -9248,13 +9381,13 @@
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>20</v>
@@ -9269,47 +9402,51 @@
       <c r="H181" s="8"/>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="6">
+        <v>4</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="20"/>
-    </row>
-    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E183" s="17"/>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="24"/>
     </row>
     <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D184" s="3">
+        <v>44302</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="17"/>
@@ -9318,122 +9455,118 @@
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="24"/>
+    </row>
+    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
-        <v>1</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F187" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="F188" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
-      <c r="J188" s="13" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
+      <c r="J189" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>20</v>
@@ -9449,19 +9582,19 @@
     </row>
     <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>49</v>
+      <c r="E191" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>22</v>
@@ -9471,19 +9604,19 @@
     </row>
     <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E192" s="10" t="s">
-        <v>42</v>
+      <c r="E192" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F192" s="8" t="s">
         <v>22</v>
@@ -9493,19 +9626,19 @@
     </row>
     <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E193" s="7" t="s">
-        <v>55</v>
+      <c r="E193" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>22</v>
@@ -9515,13 +9648,13 @@
     </row>
     <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>20</v>
@@ -9536,176 +9669,176 @@
       <c r="H194" s="8"/>
     </row>
     <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="34">
+        <v>8</v>
+      </c>
+      <c r="B195" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D195" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F195" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="36"/>
+      <c r="H195" s="36"/>
+    </row>
+    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="42">
+        <v>9</v>
+      </c>
+      <c r="B196" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="C196" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D196" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="E196" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="F196" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="G196" s="41"/>
+      <c r="H196" s="41"/>
+    </row>
+    <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="20"/>
-    </row>
-    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E196" s="21"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="22"/>
-      <c r="H196" s="23"/>
-    </row>
-    <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="24"/>
-      <c r="F197" s="25"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="26"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="29"/>
+      <c r="H197" s="30"/>
     </row>
     <row r="198" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E198" s="25"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="27"/>
     </row>
     <row r="199" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="28"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="29"/>
+      <c r="H199" s="30"/>
+    </row>
+    <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="24"/>
+    </row>
+    <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="6">
-        <v>1</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
-        <v>2</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F201" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="F202" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
+      <c r="H202" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="10" t="s">
-        <v>59</v>
+      <c r="E203" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F203" s="8" t="s">
         <v>22</v>
@@ -9715,19 +9848,19 @@
     </row>
     <row r="204" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E204" s="7" t="s">
-        <v>49</v>
+      <c r="E204" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>22</v>
@@ -9737,19 +9870,19 @@
     </row>
     <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F205" s="8" t="s">
         <v>22</v>
@@ -9758,200 +9891,200 @@
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="6">
+        <v>5</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+    </row>
+    <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="6">
+        <v>6</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+    </row>
+    <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="20"/>
-    </row>
-    <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E207" s="21"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="22"/>
-      <c r="H207" s="23"/>
-    </row>
-    <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="24"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="26"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="24"/>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="19"/>
-      <c r="H209" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E209" s="25"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="26"/>
+      <c r="H209" s="27"/>
     </row>
     <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="28"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="29"/>
+      <c r="H210" s="30"/>
+    </row>
+    <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="24"/>
+    </row>
+    <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="H212" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="6">
-        <v>1</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" s="8"/>
-      <c r="H211" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="6">
-        <v>2</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F212" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="F213" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
+      <c r="H213" s="9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E214" s="10" t="s">
-        <v>59</v>
+      <c r="E214" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
+      <c r="H214" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E215" s="7" t="s">
-        <v>49</v>
+      <c r="E215" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>22</v>
@@ -9960,42 +10093,42 @@
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="15">
-        <v>6</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F216" s="9" t="s">
+      <c r="A216" s="6">
+        <v>4</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
     </row>
     <row r="217" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E217" s="10" t="s">
-        <v>163</v>
+      <c r="E217" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>22</v>
@@ -10004,150 +10137,146 @@
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="18" t="s">
+      <c r="A218" s="15">
+        <v>6</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+    </row>
+    <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>6</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+    </row>
+    <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="20"/>
-    </row>
-    <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E219" s="21"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="23"/>
-    </row>
-    <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="24"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="25"/>
-      <c r="H220" s="26"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="24"/>
     </row>
     <row r="221" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-      <c r="H221" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E221" s="25"/>
+      <c r="F221" s="26"/>
+      <c r="G221" s="26"/>
+      <c r="H221" s="27"/>
     </row>
     <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="28"/>
+      <c r="F222" s="29"/>
+      <c r="G222" s="29"/>
+      <c r="H222" s="30"/>
+    </row>
+    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="24"/>
+    </row>
+    <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="6">
-        <v>1</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E223" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F223" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G223" s="8"/>
-      <c r="H223" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="6">
-        <v>2</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>20</v>
@@ -10159,45 +10288,49 @@
         <v>22</v>
       </c>
       <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
+      <c r="H225" s="9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="226" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F226" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
+      <c r="H226" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="227" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E227" s="7" t="s">
-        <v>49</v>
+      <c r="E227" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>22</v>
@@ -10207,13 +10340,13 @@
     </row>
     <row r="228" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>20</v>
@@ -10228,394 +10361,436 @@
       <c r="H228" s="8"/>
     </row>
     <row r="229" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="18" t="s">
+      <c r="A229" s="6">
+        <v>5</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
+    </row>
+    <row r="230" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="6">
+        <v>6</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" s="8"/>
+      <c r="H230" s="8"/>
+    </row>
+    <row r="231" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="20"/>
-    </row>
-    <row r="230" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D230" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E230" s="21"/>
-      <c r="F230" s="22"/>
-      <c r="G230" s="22"/>
-      <c r="H230" s="23"/>
-    </row>
-    <row r="231" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="24"/>
-      <c r="F231" s="25"/>
-      <c r="G231" s="25"/>
-      <c r="H231" s="26"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="24"/>
     </row>
     <row r="232" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E232" s="25"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="27"/>
     </row>
     <row r="233" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="28"/>
+      <c r="F233" s="29"/>
+      <c r="G233" s="29"/>
+      <c r="H233" s="30"/>
+    </row>
+    <row r="234" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
+      <c r="H234" s="24"/>
+    </row>
+    <row r="235" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F235" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="H235" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J233" s="13" t="s">
+      <c r="J235" s="13"/>
+    </row>
+    <row r="236" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
+        <v>1</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
-        <v>1</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E234" s="7" t="s">
+      <c r="F236" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6">
+        <v>2</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F234" s="8" t="s">
+      <c r="C237" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F237" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
-        <v>2</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8" t="s">
+      <c r="G237" s="8"/>
+      <c r="H237" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="18" t="s">
+    <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="20"/>
-    </row>
-    <row r="237" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B237" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" s="3">
-        <v>44302</v>
-      </c>
-      <c r="E237" s="21"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="22"/>
-      <c r="H237" s="23"/>
-    </row>
-    <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D238" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="E238" s="24"/>
-      <c r="F238" s="25"/>
-      <c r="G238" s="25"/>
-      <c r="H238" s="26"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="24"/>
     </row>
     <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B239" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="G239" s="19"/>
-      <c r="H239" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="3">
+        <v>44302</v>
+      </c>
+      <c r="E239" s="25"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="26"/>
+      <c r="H239" s="27"/>
     </row>
     <row r="240" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E240" s="28"/>
+      <c r="F240" s="29"/>
+      <c r="G240" s="29"/>
+      <c r="H240" s="30"/>
+    </row>
+    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
+      <c r="H241" s="24"/>
+    </row>
+    <row r="242" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="F242" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="H242" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="15">
-        <v>1</v>
-      </c>
-      <c r="B241" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C241" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E241" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="15">
-        <v>2</v>
-      </c>
-      <c r="B242" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C242" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E242" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="15">
-        <v>3</v>
-      </c>
-      <c r="B243" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="C243" s="33" t="s">
-        <v>317</v>
+        <v>1</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C243" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E243" s="32" t="s">
+      <c r="E243" s="20" t="s">
         <v>320</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G243" s="9"/>
-      <c r="H243" s="9"/>
+      <c r="H243" s="9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="244" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="15">
-        <v>4</v>
-      </c>
-      <c r="B244" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="C244" s="33" t="s">
-        <v>318</v>
+        <v>2</v>
+      </c>
+      <c r="B244" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E244" s="32" t="s">
-        <v>319</v>
+      <c r="E244" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="F244" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G244" s="9"/>
-      <c r="H244" s="9"/>
+      <c r="H244" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="15">
+        <v>3</v>
+      </c>
+      <c r="B245" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+    </row>
+    <row r="246" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="15">
+        <v>4</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A236:H236"/>
-    <mergeCell ref="E237:H238"/>
-    <mergeCell ref="B239:H239"/>
-    <mergeCell ref="E230:H231"/>
-    <mergeCell ref="B232:H232"/>
-    <mergeCell ref="A206:H206"/>
-    <mergeCell ref="E207:H208"/>
-    <mergeCell ref="B209:H209"/>
-    <mergeCell ref="A218:H218"/>
-    <mergeCell ref="E219:H220"/>
-    <mergeCell ref="B221:H221"/>
-    <mergeCell ref="A229:H229"/>
-    <mergeCell ref="E122:H123"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="E144:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="E114:H115"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="E93:H94"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="E100:H101"/>
-    <mergeCell ref="E76:H77"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="E86:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="E46:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="E58:H59"/>
-    <mergeCell ref="B185:H185"/>
-    <mergeCell ref="A195:H195"/>
-    <mergeCell ref="E196:H197"/>
-    <mergeCell ref="B198:H198"/>
+    <mergeCell ref="E33:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="A174:H174"/>
+    <mergeCell ref="E175:H176"/>
+    <mergeCell ref="A157:H157"/>
+    <mergeCell ref="E158:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="E167:H168"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="E10:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="E33:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="A173:H173"/>
-    <mergeCell ref="E174:H175"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="A182:H182"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="E157:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="E166:H167"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="E59:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="E68:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="E77:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="E87:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="E94:H95"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="E101:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="E115:H116"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="B223:H223"/>
+    <mergeCell ref="A231:H231"/>
+    <mergeCell ref="E123:H124"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="E145:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B186:H186"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="E198:H199"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="A183:H183"/>
+    <mergeCell ref="A208:H208"/>
+    <mergeCell ref="E209:H210"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="A220:H220"/>
+    <mergeCell ref="E221:H222"/>
+    <mergeCell ref="A238:H238"/>
+    <mergeCell ref="E239:H240"/>
+    <mergeCell ref="B241:H241"/>
+    <mergeCell ref="E232:H233"/>
+    <mergeCell ref="B234:H234"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
